--- a/data/group.xlsx
+++ b/data/group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_group_and_verify_name" sheetId="1" r:id="rId1"/>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/data/group.xlsx
+++ b/data/group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="add_group_and_verify_name" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/group.xlsx
+++ b/data/group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="858" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="858" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_group_and_verify_name" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group -a add -g test_test_test_test_test_test_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group -g invalid_setting_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group -a add -g test_test_test_test_test_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>send command</t>
   </si>
   <si>
@@ -225,18 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group -g test_test_test_test_test_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group -a add -g name_name_name_name_name_name_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group -g name_name_name_name_name_name_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group and users should be added</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,9 +345,6 @@
     <t>The parameter [groupname] contains invalid character</t>
   </si>
   <si>
-    <t>The parameter [groupname] length is over 30 bytes</t>
-  </si>
-  <si>
     <t>NAS group [invalid_setting_name] doesn't exist</t>
   </si>
   <si>
@@ -398,6 +375,29 @@
   </si>
   <si>
     <t>The group name [users] is reserved by system</t>
+  </si>
+  <si>
+    <t>group -a add -g name_name_name_name_name_name31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group -a add -g test_test_test_test_test_test_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group -g test_test_test_test_test_test_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group -g name_name_name_name_name_name31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group -a add -g test_test_test_test_test_test_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting parameters too long</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,96 +764,96 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -887,50 +887,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -963,122 +963,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1108,33 +1108,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1164,33 +1164,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1218,47 +1218,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1287,53 +1287,53 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1363,30 +1363,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1415,33 +1415,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1471,44 +1471,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1542,26 +1542,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1569,71 +1569,71 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/group.xlsx
+++ b/data/group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="858" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="858" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_group_and_verify_name" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,14 @@
   </si>
   <si>
     <t>Setting parameters too long</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -865,71 +873,92 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.75" customWidth="1"/>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -941,143 +970,191 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="50.25" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1520,119 +1597,158 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="72.5" customWidth="1"/>
-    <col min="2" max="2" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="58.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>

--- a/data/group.xlsx
+++ b/data/group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="858" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="858" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_group_and_verify_name" sheetId="1" r:id="rId1"/>
@@ -397,14 +397,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Setting parameters too long</t>
-  </si>
-  <si>
     <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The parameter [groupname] length is over 31 bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -972,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1599,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1669,10 +1670,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1755,5 +1756,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>